--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -1085,8 +1085,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -1170,11 +1170,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-201266</v>
+        <v>-239766</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1194,11 +1194,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-142649</v>
+        <v>-181149</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-135841</v>
+        <v>-174341</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1242,11 +1242,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-98931</v>
+        <v>-137431</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,11 +1266,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-49616</v>
+        <v>-88116</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1290,11 +1290,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-13096</v>
+        <v>-51596</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1314,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-11826</v>
+        <v>-50326</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1338,11 +1338,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>13298</v>
+        <v>-25202</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1362,11 +1362,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,11 +1382,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,11 +1402,11 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1422,11 @@
       </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,15 +1434,19 @@
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="18"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="15">
+        <v>44587</v>
+      </c>
+      <c r="G17" s="16">
+        <v>38500</v>
+      </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1458,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1474,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1490,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1506,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1522,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1538,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1554,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1570,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1586,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1602,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,11 +1618,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1634,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1646,11 +1650,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1662,11 +1666,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1678,11 +1682,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1694,11 +1698,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1711,11 +1715,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1744,7 +1748,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>263577</v>
+        <v>302077</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1767,7 +1771,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>38570</v>
+        <v>70</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -51,16 +51,7 @@
     <t>HINDUSTAN TOYS</t>
   </si>
   <si>
-    <t>GS</t>
-  </si>
-  <si>
     <t>TOY GALLERY - VIJAY MALA</t>
-  </si>
-  <si>
-    <t>FEIGHT</t>
-  </si>
-  <si>
-    <t>RD</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1109,7 +1100,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1155,218 +1146,150 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>43831</v>
+        <v>44594</v>
       </c>
       <c r="B5" s="8">
-        <v>62311</v>
+        <v>26350</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="8">
-        <v>270</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-239766</v>
+        <v>26350</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>757</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>43894</v>
-      </c>
-      <c r="B6" s="8">
-        <v>58617</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44255</v>
-      </c>
-      <c r="G6" s="8">
-        <v>16909</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-181149</v>
+        <v>26350</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>694</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44181</v>
-      </c>
-      <c r="B7" s="16">
-        <v>6808</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44001</v>
-      </c>
-      <c r="G7" s="16">
-        <v>30000</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-174341</v>
+        <v>26350</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>407</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44237</v>
-      </c>
-      <c r="B8" s="16">
-        <v>36910</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15">
-        <v>44532</v>
-      </c>
-      <c r="G8" s="16">
-        <v>25000</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-137431</v>
+        <v>26350</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>351</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53">
-        <v>44232</v>
-      </c>
-      <c r="B9" s="13">
-        <v>49315</v>
-      </c>
+      <c r="A9" s="53"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="16">
-        <v>310</v>
-      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-88116</v>
+        <v>26350</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>356</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53">
-        <v>44242</v>
-      </c>
-      <c r="B10" s="13">
-        <v>36520</v>
-      </c>
+      <c r="A10" s="53"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15">
-        <v>44218</v>
-      </c>
-      <c r="G10" s="16">
-        <v>26000</v>
-      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-51596</v>
+        <v>26350</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>346</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="53"/>
-      <c r="B11" s="17">
-        <v>1270</v>
-      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="16">
-        <v>300</v>
-      </c>
+      <c r="D11" s="18"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-50326</v>
+        <v>26350</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="53">
-        <v>44291</v>
-      </c>
-      <c r="B12" s="17">
-        <v>25124</v>
-      </c>
+      <c r="A12" s="53"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
-      <c r="F12" s="15">
-        <v>44279</v>
-      </c>
-      <c r="G12" s="16">
-        <v>60000</v>
-      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-25202</v>
+        <v>26350</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>297</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="53">
-        <v>44295</v>
-      </c>
-      <c r="B13" s="13">
-        <v>25272</v>
-      </c>
+      <c r="A13" s="53"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
-      <c r="F13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="13">
-        <v>195</v>
-      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>293</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,19 +1297,15 @@
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
-      <c r="F14" s="15">
-        <v>44392</v>
-      </c>
-      <c r="G14" s="16">
-        <v>34593</v>
-      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,19 +1313,15 @@
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
-      <c r="F15" s="15">
-        <v>44419</v>
-      </c>
-      <c r="G15" s="16">
-        <v>30000</v>
-      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,19 +1329,15 @@
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
       <c r="D16" s="18"/>
-      <c r="F16" s="15">
-        <v>44489</v>
-      </c>
-      <c r="G16" s="16">
-        <v>40000</v>
-      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,19 +1345,15 @@
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="18"/>
-      <c r="F17" s="15">
-        <v>44587</v>
-      </c>
-      <c r="G17" s="16">
-        <v>38500</v>
-      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1365,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1381,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1397,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1413,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1429,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1445,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1461,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1477,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1493,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1509,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1525,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,11 +1541,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,11 +1557,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1666,11 +1573,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1682,11 +1589,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1698,11 +1605,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1715,11 +1622,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1740,7 +1647,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>302147</v>
+        <v>26350</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1748,7 +1655,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>302077</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1771,7 +1678,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>70</v>
+        <v>26350</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,23 +1161,27 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>44600</v>
+      </c>
+      <c r="B6" s="8">
+        <v>57985</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44600</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,11 +1193,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,11 +1209,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,11 +1225,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,11 +1241,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,11 +1257,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,11 +1273,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,11 +1289,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,11 +1305,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1321,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1337,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1353,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1369,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1385,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1401,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1417,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1433,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1449,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1465,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1481,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1497,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1513,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1529,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1545,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1561,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1577,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1593,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1609,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,11 +1626,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1647,7 +1651,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1678,7 +1682,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>26350</v>
+        <v>84335</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -1076,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1181,23 +1181,27 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>44602</v>
+      </c>
+      <c r="B7" s="16">
+        <v>90010</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44609</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,11 +1213,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,11 +1229,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,11 +1245,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1261,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,11 +1277,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1289,11 +1293,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1309,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,11 +1325,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,11 +1341,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1357,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,11 +1373,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1389,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1405,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1421,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1437,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1453,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1469,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1485,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1501,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1517,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1533,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1549,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1565,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1581,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1597,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1613,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1630,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1651,7 +1655,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1682,7 +1686,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,15 +1153,19 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44645</v>
+      </c>
+      <c r="G5" s="8">
+        <v>49000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>26350</v>
+        <v>-22650</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,11 +1181,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>84335</v>
+        <v>35335</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>34</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1197,75 +1201,91 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>174345</v>
+        <v>125345</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>32</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44641</v>
+      </c>
+      <c r="B8" s="16">
+        <v>29630</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>174345</v>
+        <v>154975</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44634</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="53">
+        <v>44656</v>
+      </c>
+      <c r="B9" s="13">
+        <v>33885</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>174345</v>
+        <v>188860</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44634</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="53">
+        <v>44665</v>
+      </c>
+      <c r="B10" s="13">
+        <v>29520</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>218380</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="53">
+        <v>44666</v>
+      </c>
+      <c r="B11" s="17">
+        <v>12430</v>
+      </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1297,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1293,11 +1313,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,11 +1329,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1345,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1361,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1377,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1393,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1409,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1425,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1441,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1457,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1473,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1489,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1505,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1521,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1537,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1553,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1569,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1585,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1601,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1617,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1633,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1650,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1655,7 +1675,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>174345</v>
+        <v>279810</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1663,7 +1683,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>49000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1686,7 +1706,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>174345</v>
+        <v>230810</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>119</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-22650</v>
+        <v>-42650</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,15 +1177,19 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44778</v>
+      </c>
+      <c r="G6" s="8">
+        <v>20000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>35335</v>
+        <v>15335</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>147</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1201,11 +1205,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>125345</v>
+        <v>105345</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>145</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,11 +1225,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>154975</v>
+        <v>134975</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>106</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,11 +1245,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>188860</v>
+        <v>168860</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>91</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1265,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>218380</v>
+        <v>198380</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,11 +1285,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,11 +1301,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1313,11 +1317,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1333,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1349,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1365,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1381,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1397,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1413,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1429,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1445,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1461,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1477,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1493,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1509,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1525,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1541,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1557,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1573,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1589,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1605,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1621,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,11 +1637,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,11 +1654,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1683,7 +1687,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>49000</v>
+        <v>69000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1706,7 +1710,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-42650</v>
+        <v>-99754</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>15335</v>
+        <v>-41769</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1201,15 +1201,19 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44799</v>
+      </c>
+      <c r="G7" s="16">
+        <v>57104</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>105345</v>
+        <v>48241</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,11 +1229,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>134975</v>
+        <v>77871</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,11 +1249,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>168860</v>
+        <v>111756</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1269,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>198380</v>
+        <v>141276</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,11 +1289,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,11 +1305,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1317,11 +1321,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1337,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1353,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1369,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1385,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1401,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1417,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1433,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1449,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1465,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1481,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1497,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1513,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1529,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1545,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1561,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1577,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1593,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1609,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,11 +1625,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,11 +1641,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1654,11 +1658,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1687,7 +1691,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>69000</v>
+        <v>126104</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1710,7 +1714,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>133</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44799</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-99754</v>
+        <v>-144754</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>223</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-41769</v>
+        <v>-86769</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>217</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,11 +1209,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>48241</v>
+        <v>3241</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>215</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,15 +1225,19 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>44838</v>
+      </c>
+      <c r="G8" s="16">
+        <v>45000</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>77871</v>
+        <v>32871</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>176</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,11 +1253,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>111756</v>
+        <v>66756</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,11 +1273,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>141276</v>
+        <v>96276</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1289,11 +1293,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1309,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1321,11 +1325,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,11 +1341,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1357,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,11 +1373,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1389,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1405,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1421,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1437,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1453,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1469,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1485,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1501,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1517,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1533,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1549,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1565,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1581,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1597,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1613,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,11 +1629,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1641,11 +1645,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1658,11 +1662,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1691,7 +1695,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>126104</v>
+        <v>171104</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1714,7 +1718,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-144754</v>
+        <v>-193754</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-86769</v>
+        <v>-135769</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>238</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,11 +1209,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>3241</v>
+        <v>-45759</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>236</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,11 +1233,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>32871</v>
+        <v>-16129</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>197</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,15 +1249,19 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15">
+        <v>44870</v>
+      </c>
+      <c r="G9" s="16">
+        <v>49000</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>66756</v>
+        <v>17756</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>182</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,11 +1277,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>96276</v>
+        <v>47276</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>173</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1293,11 +1297,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>172</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,11 +1313,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1325,11 +1329,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1345,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1361,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1377,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1393,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1409,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1425,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1441,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1457,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1473,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1489,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1505,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1521,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1537,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1553,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1569,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1585,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1601,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1617,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,11 +1633,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1645,11 +1649,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1662,11 +1666,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1695,7 +1699,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>171104</v>
+        <v>220104</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1718,7 +1722,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44870</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-193754</v>
+        <v>-223754</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>287</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-135769</v>
+        <v>-165769</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>281</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,11 +1209,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-45759</v>
+        <v>-75759</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>279</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,11 +1233,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-16129</v>
+        <v>-46129</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>17756</v>
+        <v>-12244</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>225</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,15 +1273,19 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="15">
+        <v>44895</v>
+      </c>
+      <c r="G10" s="16">
+        <v>30000</v>
+      </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>47276</v>
+        <v>17276</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,11 +1301,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1313,11 +1317,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1329,11 +1333,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1349,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1365,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1381,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1397,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1413,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1429,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1445,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1461,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1477,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1493,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1509,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1525,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1541,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1557,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1573,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1589,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1605,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1621,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,11 +1637,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1649,11 +1653,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1666,11 +1670,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44881</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1699,7 +1703,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>220104</v>
+        <v>250104</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1722,7 +1726,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>303</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>297</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>295</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-223754</v>
+        <v>-253454</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>321</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-165769</v>
+        <v>-195469</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>315</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,11 +1209,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-75759</v>
+        <v>-105459</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>313</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,11 +1233,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-46129</v>
+        <v>-75829</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>274</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-12244</v>
+        <v>-41944</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>259</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,11 +1281,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>17276</v>
+        <v>-12424</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,15 +1297,19 @@
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="15">
+        <v>44956</v>
+      </c>
+      <c r="G11" s="16">
+        <v>29700</v>
+      </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>249</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1321,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1333,11 +1337,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1353,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1369,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1385,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1401,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1417,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1433,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1449,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1465,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1481,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1497,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1513,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1529,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1545,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1561,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1577,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1593,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1609,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,11 +1625,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,11 +1641,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1653,11 +1657,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1670,11 +1674,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1703,7 +1707,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>250104</v>
+        <v>279804</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1726,7 +1730,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,170 +1146,122 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44594</v>
+        <v>44988</v>
       </c>
       <c r="B5" s="8">
-        <v>26350</v>
+        <v>54770</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44645</v>
-      </c>
-      <c r="G5" s="8">
-        <v>49000</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-253454</v>
+        <v>54770</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>365</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7">
-        <v>44600</v>
+        <v>45010</v>
       </c>
       <c r="B6" s="8">
-        <v>57985</v>
+        <v>47510</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44778</v>
-      </c>
-      <c r="G6" s="8">
-        <v>20000</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-195469</v>
+        <v>102280</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>359</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44602</v>
-      </c>
-      <c r="B7" s="16">
-        <v>90010</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44799</v>
-      </c>
-      <c r="G7" s="16">
-        <v>57104</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-105459</v>
+        <v>102280</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>357</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44641</v>
-      </c>
-      <c r="B8" s="16">
-        <v>29630</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15">
-        <v>44838</v>
-      </c>
-      <c r="G8" s="16">
-        <v>45000</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-75829</v>
+        <v>102280</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>318</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53">
-        <v>44656</v>
-      </c>
-      <c r="B9" s="13">
-        <v>33885</v>
-      </c>
+      <c r="A9" s="53"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15">
-        <v>44870</v>
-      </c>
-      <c r="G9" s="16">
-        <v>49000</v>
-      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-41944</v>
+        <v>102280</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>303</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53">
-        <v>44665</v>
-      </c>
-      <c r="B10" s="13">
-        <v>29520</v>
-      </c>
+      <c r="A10" s="53"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15">
-        <v>44895</v>
-      </c>
-      <c r="G10" s="16">
-        <v>30000</v>
-      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-12424</v>
+        <v>102280</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>294</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="53">
-        <v>44666</v>
-      </c>
-      <c r="B11" s="17">
-        <v>12430</v>
-      </c>
+      <c r="A11" s="53"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
-      <c r="F11" s="15">
-        <v>44956</v>
-      </c>
-      <c r="G11" s="16">
-        <v>29700</v>
-      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>293</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,11 +1273,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1337,11 +1289,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1305,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,11 +1321,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1337,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1353,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1369,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1385,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1401,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1417,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1433,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1449,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1465,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1481,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1497,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1513,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1529,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1545,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1561,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,11 +1577,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1641,11 +1593,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1657,11 +1609,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1674,11 +1626,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44959</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1699,7 +1651,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>279810</v>
+        <v>102280</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1707,7 +1659,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>279804</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1730,7 +1682,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>6</v>
+        <v>102280</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -1161,7 +1161,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/VIJAY MALA.xlsx
+++ b/IMPORTANT/VIJAY MALA.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,15 +1153,19 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>45090</v>
+      </c>
+      <c r="G5" s="8">
+        <v>49000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>54770</v>
+        <v>5770</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,11 +1181,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,11 +1197,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,11 +1213,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,11 +1229,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,11 +1245,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1261,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,11 +1277,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1289,11 +1293,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1309,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,11 +1325,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,11 +1341,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1357,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,11 +1373,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1389,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1405,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1421,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1437,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1453,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1469,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1485,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1501,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1517,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1533,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1549,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1565,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1581,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1597,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1613,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1630,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1659,7 +1663,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>49000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1682,7 +1686,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
